--- a/assets/files/Still,Slide & Vignette.xlsx
+++ b/assets/files/Still,Slide & Vignette.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Documents\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Documents\Scheduling\Updated files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,12 +46,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="125">
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>TYPE</t>
   </si>
   <si>
     <t>LOCATION</t>
@@ -416,18 +413,6 @@
   </si>
   <si>
     <t>Test 4</t>
-  </si>
-  <si>
-    <t>TapeID</t>
-  </si>
-  <si>
-    <t>VG0013</t>
-  </si>
-  <si>
-    <t>SlD0013</t>
-  </si>
-  <si>
-    <t>St00013</t>
   </si>
   <si>
     <t>SDX</t>
@@ -443,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +465,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -634,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,12 +641,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -668,18 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,7 +667,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,49 +719,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1093,230 +1058,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="2"/>
+    <col min="3" max="3" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="15" t="str">
-        <f t="shared" ref="F2:F4" si="0">IF(ISBLANK(E2),"",E2)</f>
+      <c r="E2" s="21" t="str">
+        <f t="shared" ref="E2:E4" si="0">IF(ISBLANK(D2),"",D2)</f>
         <v>UA Censor</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="F2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="I2" s="21">
+      <c r="H2" s="22">
         <v>45212</v>
       </c>
-      <c r="J2" s="21">
+      <c r="I2" s="22">
         <v>45213</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="5" t="str">
+      <c r="E3" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Test 3</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="23">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
+      <c r="H3" s="25">
         <v>45212</v>
       </c>
-      <c r="J3" s="22">
+      <c r="I3" s="25">
         <v>45213</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="5" t="str">
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Test 4</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="23">
         <v>10</v>
       </c>
-      <c r="I4" s="22">
+      <c r="H4" s="25">
         <v>45212</v>
       </c>
-      <c r="J4" s="22">
+      <c r="I4" s="25">
         <v>45213</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="14"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="12"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0"/>
-  <conditionalFormatting sqref="A2:E4 G2:J4">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="F2:I4 A2:D5">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 G5:J5">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="F5:I5">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Past date is not allowed." sqref="I2:I5">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Past date is not allowed." sqref="H2:H5">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Only numbers allowed &amp; give the duration in Seconds only" sqref="H2:H5">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Only numbers allowed &amp; give the duration in Seconds only" sqref="G2:G5">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>IF(ISBLANK(E2)," ",E2)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>IF(ISBLANK(D2)," ",D2)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="End Date has to equal or higher than Start Date" sqref="J2:J5">
-      <formula1>IF(J2&gt;=I2,J2,"ERORR")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="End Date has to equal or higher than Start Date" sqref="I2:I5">
+      <formula1>IF(I2&gt;=H2,I2,"ERORR")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
-      <formula1>INDIRECT($C2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>INDIRECT($A2)</formula1>
@@ -1326,24 +1265,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$I$3:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5</xm:sqref>
+          <xm:sqref>F2:F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$A$3:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$J$3:$J$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1367,95 +1300,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="12" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1487,1114 +1420,1114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="F2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>116</v>
+        <v>81</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>118</v>
+        <v>83</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
